--- a/test/Excel2PyCl.xlsx
+++ b/test/Excel2PyCl.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AVERAGEIFS" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="SEARCH" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t xml:space="preserve">Азбука</t>
   </si>
@@ -61,6 +62,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'=AVERAGEIFS(</t>
     </r>
@@ -70,6 +72,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">D1:E6</t>
     </r>
@@ -79,6 +82,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;</t>
     </r>
@@ -88,6 +92,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B1:C6</t>
     </r>
@@ -97,9 +102,46 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;"азбука")</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">р</t>
+  </si>
+  <si>
+    <t xml:space="preserve">имбирь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'=SEARCH(A1;B1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">и</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'=SEARCH(A2;B2,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">б*ь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИМБИРЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'=SEARCH(A3;B3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБ*РЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'=SEARCH(A4;B4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Река</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'=SEARCH(A5;B5)</t>
   </si>
 </sst>
 </file>
@@ -117,6 +159,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -138,12 +181,14 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,8 +269,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -233,7 +278,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,7 +360,7 @@
       <c r="C4" s="1" t="n">
         <v>44275</v>
       </c>
-      <c r="D4" s="3" t="b">
+      <c r="D4" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -408,11 +453,114 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.77"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <f aca="false">SEARCH(A1,B1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">SEARCH(A2,B2,2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">SEARCH(A3,B3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">SEARCH(A4,B4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="e">
+        <f aca="false">SEARCH(A5,B5)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/test/Excel2PyCl.xlsx
+++ b/test/Excel2PyCl.xlsx
@@ -132,7 +132,7 @@
     <t xml:space="preserve">'=SEARCH(A3;B3)</t>
   </si>
   <si>
-    <t xml:space="preserve">МБ*РЬ</t>
+    <t xml:space="preserve">МБ?РЬ</t>
   </si>
   <si>
     <t xml:space="preserve">'=SEARCH(A4;B4)</t>
@@ -470,7 +470,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/test/Excel2PyCl.xlsx
+++ b/test/Excel2PyCl.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t xml:space="preserve">Азбука</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t xml:space="preserve">'=SEARCH(A5;B5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">м</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -554,6 +557,18 @@
         <v>#VALUE!</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="0" t="e">
+        <f aca="false">SEARCH(A6,B6,3)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/test/Excel2PyCl.xlsx
+++ b/test/Excel2PyCl.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AVERAGEIFS" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="COUNTBLANK" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">Азбука</t>
   </si>
@@ -61,6 +62,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'=AVERAGEIFS(</t>
     </r>
@@ -70,6 +72,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">D1:E6</t>
     </r>
@@ -79,6 +82,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;</t>
     </r>
@@ -88,6 +92,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">B1:C6</t>
     </r>
@@ -97,9 +102,13 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;"азбука")</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">7,0</t>
   </si>
 </sst>
 </file>
@@ -117,6 +126,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -138,12 +148,14 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,8 +236,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -233,7 +245,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,7 +327,7 @@
       <c r="C4" s="1" t="n">
         <v>44275</v>
       </c>
-      <c r="D4" s="3" t="b">
+      <c r="D4" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -408,11 +420,98 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="n">
+        <v>435</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" s="0" t="str">
+        <f aca="false">""</f>
+        <v/>
+      </c>
+      <c r="F1" s="0" t="n">
+        <f aca="false">COUNTBLANK(A1:E1)</f>
+        <v>3</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0" t="str">
+        <f aca="false">A2&amp;B2</f>
+        <v/>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">COUNTBLANK(A2:E2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">COUNTBLANK(A3:E3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="0" t="n">
+        <f aca="false">COUNTBLANK(A1:G9)</f>
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>